--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I655"/>
+  <dimension ref="A1:I656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19452,6 +19452,35 @@
         <v>10.43</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B656" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="C656" t="n">
+        <v>9.885</v>
+      </c>
+      <c r="D656" t="n">
+        <v>5.305</v>
+      </c>
+      <c r="E656" t="n">
+        <v>7.905</v>
+      </c>
+      <c r="F656" t="n">
+        <v>9.455</v>
+      </c>
+      <c r="G656" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="H656" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="I656" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I656"/>
+  <dimension ref="A1:I657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19481,6 +19481,35 @@
         <v>10.67</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B657" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C657" t="n">
+        <v>9.675000000000001</v>
+      </c>
+      <c r="D657" t="n">
+        <v>5.295</v>
+      </c>
+      <c r="E657" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="F657" t="n">
+        <v>9.265000000000001</v>
+      </c>
+      <c r="G657" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="H657" t="n">
+        <v>10.495</v>
+      </c>
+      <c r="I657" t="n">
+        <v>10.415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I657"/>
+  <dimension ref="A1:I660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19510,6 +19510,93 @@
         <v>10.415</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>44618</v>
+      </c>
+      <c r="B658" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C658" t="n">
+        <v>9.675000000000001</v>
+      </c>
+      <c r="D658" t="n">
+        <v>5.295</v>
+      </c>
+      <c r="E658" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="F658" t="n">
+        <v>9.265000000000001</v>
+      </c>
+      <c r="G658" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="H658" t="n">
+        <v>10.495</v>
+      </c>
+      <c r="I658" t="n">
+        <v>10.415</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B659" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C659" t="n">
+        <v>9.675000000000001</v>
+      </c>
+      <c r="D659" t="n">
+        <v>5.295</v>
+      </c>
+      <c r="E659" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="F659" t="n">
+        <v>9.265000000000001</v>
+      </c>
+      <c r="G659" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="H659" t="n">
+        <v>10.495</v>
+      </c>
+      <c r="I659" t="n">
+        <v>10.415</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B660" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C660" t="n">
+        <v>9.865</v>
+      </c>
+      <c r="D660" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E660" t="n">
+        <v>7.915</v>
+      </c>
+      <c r="F660" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="G660" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H660" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="I660" t="n">
+        <v>10.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I660"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19597,6 +19597,35 @@
         <v>10.62</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B661" t="n">
+        <v>5</v>
+      </c>
+      <c r="C661" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D661" t="n">
+        <v>5.385</v>
+      </c>
+      <c r="E661" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F661" t="n">
+        <v>9.494999999999999</v>
+      </c>
+      <c r="G661" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="H661" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="I661" t="n">
+        <v>10.635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19626,6 +19626,35 @@
         <v>10.635</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B662" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C662" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D662" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E662" t="n">
+        <v>8.035</v>
+      </c>
+      <c r="F662" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G662" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H662" t="n">
+        <v>10.795</v>
+      </c>
+      <c r="I662" t="n">
+        <v>10.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I662"/>
+  <dimension ref="A1:I663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19655,6 +19655,35 @@
         <v>10.72</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B663" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C663" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D663" t="n">
+        <v>5.365</v>
+      </c>
+      <c r="E663" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="F663" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="G663" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="H663" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="I663" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I663"/>
+  <dimension ref="A1:I664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19684,6 +19684,35 @@
         <v>10.69</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B664" t="n">
+        <v>5</v>
+      </c>
+      <c r="C664" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D664" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E664" t="n">
+        <v>8.154999999999999</v>
+      </c>
+      <c r="F664" t="n">
+        <v>9.675000000000001</v>
+      </c>
+      <c r="G664" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="H664" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I664" t="n">
+        <v>10.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I664"/>
+  <dimension ref="A1:I666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19713,6 +19713,64 @@
         <v>10.77</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B665" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C665" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D665" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E665" t="n">
+        <v>8.154999999999999</v>
+      </c>
+      <c r="F665" t="n">
+        <v>9.675000000000001</v>
+      </c>
+      <c r="G665" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="H665" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I665" t="n">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B666" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C666" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D666" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="E666" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="F666" t="n">
+        <v>9.945</v>
+      </c>
+      <c r="G666" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="H666" t="n">
+        <v>11.105</v>
+      </c>
+      <c r="I666" t="n">
+        <v>11.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I666"/>
+  <dimension ref="A1:I667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19771,6 +19771,35 @@
         <v>11.04</v>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B667" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C667" t="n">
+        <v>10.665</v>
+      </c>
+      <c r="D667" t="n">
+        <v>5.615</v>
+      </c>
+      <c r="E667" t="n">
+        <v>8.805</v>
+      </c>
+      <c r="F667" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="G667" t="n">
+        <v>11.325</v>
+      </c>
+      <c r="H667" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="I667" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I667"/>
+  <dimension ref="A1:I668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19800,6 +19800,35 @@
         <v>11.31</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B668" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C668" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="D668" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E668" t="n">
+        <v>8.465</v>
+      </c>
+      <c r="F668" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="G668" t="n">
+        <v>10.915</v>
+      </c>
+      <c r="H668" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="I668" t="n">
+        <v>10.895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I668"/>
+  <dimension ref="A1:I669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19829,6 +19829,35 @@
         <v>10.895</v>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B669" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C669" t="n">
+        <v>10.275</v>
+      </c>
+      <c r="D669" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="E669" t="n">
+        <v>8.475</v>
+      </c>
+      <c r="F669" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="G669" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="H669" t="n">
+        <v>10.985</v>
+      </c>
+      <c r="I669" t="n">
+        <v>10.915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I669"/>
+  <dimension ref="A1:I670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19858,6 +19858,35 @@
         <v>10.915</v>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B670" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C670" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="D670" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="E670" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F670" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="G670" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H670" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="I670" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I670"/>
+  <dimension ref="A1:I672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19887,6 +19887,64 @@
         <v>10.71</v>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B671" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C671" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D671" t="n">
+        <v>5.485</v>
+      </c>
+      <c r="E671" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="F671" t="n">
+        <v>9.715</v>
+      </c>
+      <c r="G671" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="H671" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="I671" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B672" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C672" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="D672" t="n">
+        <v>5.555</v>
+      </c>
+      <c r="E672" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F672" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="G672" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="H672" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="I672" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I672"/>
+  <dimension ref="A1:I673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19945,6 +19945,35 @@
         <v>10.82</v>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B673" t="n">
+        <v>5</v>
+      </c>
+      <c r="C673" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D673" t="n">
+        <v>5.515</v>
+      </c>
+      <c r="E673" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F673" t="n">
+        <v>9.795</v>
+      </c>
+      <c r="G673" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="H673" t="n">
+        <v>10.885</v>
+      </c>
+      <c r="I673" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I673"/>
+  <dimension ref="A1:I674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19974,6 +19974,35 @@
         <v>10.82</v>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B674" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C674" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D674" t="n">
+        <v>5.505</v>
+      </c>
+      <c r="E674" t="n">
+        <v>8.225</v>
+      </c>
+      <c r="F674" t="n">
+        <v>9.625</v>
+      </c>
+      <c r="G674" t="n">
+        <v>10.685</v>
+      </c>
+      <c r="H674" t="n">
+        <v>10.715</v>
+      </c>
+      <c r="I674" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I674"/>
+  <dimension ref="A1:I675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20003,6 +20003,35 @@
         <v>10.65</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B675" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C675" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D675" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E675" t="n">
+        <v>8.265000000000001</v>
+      </c>
+      <c r="F675" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="G675" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H675" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="I675" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20032,6 +20032,35 @@
         <v>10.59</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B676" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C676" t="n">
+        <v>10.055</v>
+      </c>
+      <c r="D676" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="E676" t="n">
+        <v>8.335000000000001</v>
+      </c>
+      <c r="F676" t="n">
+        <v>9.654999999999999</v>
+      </c>
+      <c r="G676" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H676" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="I676" t="n">
+        <v>10.695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I676"/>
+  <dimension ref="A1:I679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20061,6 +20061,93 @@
         <v>10.695</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B677" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C677" t="n">
+        <v>10.055</v>
+      </c>
+      <c r="D677" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="E677" t="n">
+        <v>8.335000000000001</v>
+      </c>
+      <c r="F677" t="n">
+        <v>9.654999999999999</v>
+      </c>
+      <c r="G677" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H677" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="I677" t="n">
+        <v>10.695</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B678" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C678" t="n">
+        <v>10.055</v>
+      </c>
+      <c r="D678" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="E678" t="n">
+        <v>8.335000000000001</v>
+      </c>
+      <c r="F678" t="n">
+        <v>9.654999999999999</v>
+      </c>
+      <c r="G678" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H678" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="I678" t="n">
+        <v>10.695</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B679" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C679" t="n">
+        <v>10.055</v>
+      </c>
+      <c r="D679" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="E679" t="n">
+        <v>8.335000000000001</v>
+      </c>
+      <c r="F679" t="n">
+        <v>9.654999999999999</v>
+      </c>
+      <c r="G679" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H679" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="I679" t="n">
+        <v>10.695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I679"/>
+  <dimension ref="A1:I680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20148,6 +20148,35 @@
         <v>10.695</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B680" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C680" t="n">
+        <v>10.165</v>
+      </c>
+      <c r="D680" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="E680" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F680" t="n">
+        <v>9.785</v>
+      </c>
+      <c r="G680" t="n">
+        <v>10.795</v>
+      </c>
+      <c r="H680" t="n">
+        <v>10.815</v>
+      </c>
+      <c r="I680" t="n">
+        <v>10.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I680"/>
+  <dimension ref="A1:I681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20177,6 +20177,35 @@
         <v>10.76</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B681" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C681" t="n">
+        <v>10.115</v>
+      </c>
+      <c r="D681" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E681" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F681" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="G681" t="n">
+        <v>10.735</v>
+      </c>
+      <c r="H681" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="I681" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I681"/>
+  <dimension ref="A1:I682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20206,6 +20206,35 @@
         <v>10.7</v>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B682" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C682" t="n">
+        <v>9.975</v>
+      </c>
+      <c r="D682" t="n">
+        <v>5.475</v>
+      </c>
+      <c r="E682" t="n">
+        <v>8.375</v>
+      </c>
+      <c r="F682" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="G682" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="H682" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I682" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I682"/>
+  <dimension ref="A1:I683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20235,6 +20235,35 @@
         <v>10.5</v>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B683" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C683" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D683" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="E683" t="n">
+        <v>8.455</v>
+      </c>
+      <c r="F683" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="G683" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H683" t="n">
+        <v>10.655</v>
+      </c>
+      <c r="I683" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I683"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20264,6 +20264,64 @@
         <v>10.59</v>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B684" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C684" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D684" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="E684" t="n">
+        <v>8.455</v>
+      </c>
+      <c r="F684" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="G684" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H684" t="n">
+        <v>10.655</v>
+      </c>
+      <c r="I684" t="n">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B685" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C685" t="n">
+        <v>10.025</v>
+      </c>
+      <c r="D685" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E685" t="n">
+        <v>8.414999999999999</v>
+      </c>
+      <c r="F685" t="n">
+        <v>9.654999999999999</v>
+      </c>
+      <c r="G685" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="H685" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="I685" t="n">
+        <v>10.535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20322,6 +20322,35 @@
         <v>10.535</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B686" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C686" t="n">
+        <v>9.885</v>
+      </c>
+      <c r="D686" t="n">
+        <v>5.435</v>
+      </c>
+      <c r="E686" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="F686" t="n">
+        <v>9.505000000000001</v>
+      </c>
+      <c r="G686" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="H686" t="n">
+        <v>10.505</v>
+      </c>
+      <c r="I686" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I686"/>
+  <dimension ref="A1:I687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20351,6 +20351,35 @@
         <v>10.45</v>
       </c>
     </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B687" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C687" t="n">
+        <v>9.914999999999999</v>
+      </c>
+      <c r="D687" t="n">
+        <v>5.415</v>
+      </c>
+      <c r="E687" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F687" t="n">
+        <v>9.565</v>
+      </c>
+      <c r="G687" t="n">
+        <v>10.515</v>
+      </c>
+      <c r="H687" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="I687" t="n">
+        <v>10.475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I687"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20380,6 +20380,35 @@
         <v>10.475</v>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B688" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C688" t="n">
+        <v>9.965</v>
+      </c>
+      <c r="D688" t="n">
+        <v>5.415</v>
+      </c>
+      <c r="E688" t="n">
+        <v>8.145</v>
+      </c>
+      <c r="F688" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G688" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H688" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="I688" t="n">
+        <v>10.565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20409,6 +20409,35 @@
         <v>10.565</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B689" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C689" t="n">
+        <v>9.984999999999999</v>
+      </c>
+      <c r="D689" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E689" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F689" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G689" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H689" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I689" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I689"/>
+  <dimension ref="A1:I692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20438,6 +20438,93 @@
         <v>10.57</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="B690" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C690" t="n">
+        <v>9.984999999999999</v>
+      </c>
+      <c r="D690" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E690" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F690" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G690" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H690" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I690" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B691" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C691" t="n">
+        <v>9.984999999999999</v>
+      </c>
+      <c r="D691" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E691" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F691" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G691" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H691" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I691" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B692" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C692" t="n">
+        <v>9.935</v>
+      </c>
+      <c r="D692" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E692" t="n">
+        <v>8.095000000000001</v>
+      </c>
+      <c r="F692" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="G692" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="H692" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="I692" t="n">
+        <v>10.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I692"/>
+  <dimension ref="A1:I693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20525,6 +20525,35 @@
         <v>10.52</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B693" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C693" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="D693" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E693" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F693" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G693" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="H693" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="I693" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I693"/>
+  <dimension ref="A1:I694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20554,6 +20554,35 @@
         <v>10.55</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B694" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C694" t="n">
+        <v>9.955</v>
+      </c>
+      <c r="D694" t="n">
+        <v>5.515</v>
+      </c>
+      <c r="E694" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="F694" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="G694" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="H694" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I694" t="n">
+        <v>10.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I694"/>
+  <dimension ref="A1:I695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20583,6 +20583,35 @@
         <v>10.52</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B695" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C695" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D695" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E695" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="F695" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="G695" t="n">
+        <v>10.545</v>
+      </c>
+      <c r="H695" t="n">
+        <v>10.565</v>
+      </c>
+      <c r="I695" t="n">
+        <v>10.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I695"/>
+  <dimension ref="A1:I696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20612,6 +20612,35 @@
         <v>10.51</v>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B696" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="C696" t="n">
+        <v>9.955</v>
+      </c>
+      <c r="D696" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E696" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="F696" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="G696" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H696" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I696" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I696"/>
+  <dimension ref="A1:I698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20641,6 +20641,64 @@
         <v>10.58</v>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B697" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C697" t="n">
+        <v>9.955</v>
+      </c>
+      <c r="D697" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E697" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="F697" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="G697" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H697" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I697" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B698" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C698" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D698" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E698" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="F698" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="G698" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="H698" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="I698" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I698"/>
+  <dimension ref="A1:I699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20699,6 +20699,35 @@
         <v>10.64</v>
       </c>
     </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B699" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C699" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="D699" t="n">
+        <v>5.505</v>
+      </c>
+      <c r="E699" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F699" t="n">
+        <v>9.645</v>
+      </c>
+      <c r="G699" t="n">
+        <v>10.675</v>
+      </c>
+      <c r="H699" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I699" t="n">
+        <v>10.645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I699"/>
+  <dimension ref="A1:I700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20728,6 +20728,35 @@
         <v>10.645</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B700" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C700" t="n">
+        <v>10.095</v>
+      </c>
+      <c r="D700" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E700" t="n">
+        <v>8.105</v>
+      </c>
+      <c r="F700" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="G700" t="n">
+        <v>10.715</v>
+      </c>
+      <c r="H700" t="n">
+        <v>10.735</v>
+      </c>
+      <c r="I700" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I700"/>
+  <dimension ref="A1:I701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20757,6 +20757,35 @@
         <v>10.68</v>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B701" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C701" t="n">
+        <v>10.155</v>
+      </c>
+      <c r="D701" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E701" t="n">
+        <v>8.145</v>
+      </c>
+      <c r="F701" t="n">
+        <v>9.775</v>
+      </c>
+      <c r="G701" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="H701" t="n">
+        <v>10.795</v>
+      </c>
+      <c r="I701" t="n">
+        <v>10.745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I701"/>
+  <dimension ref="A1:I702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20786,6 +20786,35 @@
         <v>10.745</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B702" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C702" t="n">
+        <v>10.155</v>
+      </c>
+      <c r="D702" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E702" t="n">
+        <v>8.145</v>
+      </c>
+      <c r="F702" t="n">
+        <v>9.775</v>
+      </c>
+      <c r="G702" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="H702" t="n">
+        <v>10.795</v>
+      </c>
+      <c r="I702" t="n">
+        <v>10.745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I702"/>
+  <dimension ref="A1:I703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20815,6 +20815,35 @@
         <v>10.745</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B703" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C703" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D703" t="n">
+        <v>5.555</v>
+      </c>
+      <c r="E703" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F703" t="n">
+        <v>9.914999999999999</v>
+      </c>
+      <c r="G703" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="H703" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="I703" t="n">
+        <v>10.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I703"/>
+  <dimension ref="A1:I704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20844,6 +20844,35 @@
         <v>10.89</v>
       </c>
     </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B704" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C704" t="n">
+        <v>10.295</v>
+      </c>
+      <c r="D704" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E704" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F704" t="n">
+        <v>9.895</v>
+      </c>
+      <c r="G704" t="n">
+        <v>10.955</v>
+      </c>
+      <c r="H704" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="I704" t="n">
+        <v>10.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I704"/>
+  <dimension ref="A1:I705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20873,6 +20873,35 @@
         <v>10.92</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B705" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C705" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="D705" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E705" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F705" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="G705" t="n">
+        <v>10.865</v>
+      </c>
+      <c r="H705" t="n">
+        <v>10.885</v>
+      </c>
+      <c r="I705" t="n">
+        <v>10.835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I705"/>
+  <dimension ref="A1:I706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20902,6 +20902,35 @@
         <v>10.835</v>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B706" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C706" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D706" t="n">
+        <v>5.505</v>
+      </c>
+      <c r="E706" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F706" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="G706" t="n">
+        <v>10.855</v>
+      </c>
+      <c r="H706" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I706" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I706"/>
+  <dimension ref="A1:I708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20931,6 +20931,64 @@
         <v>10.82</v>
       </c>
     </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B707" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C707" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D707" t="n">
+        <v>5.505</v>
+      </c>
+      <c r="E707" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F707" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="G707" t="n">
+        <v>10.855</v>
+      </c>
+      <c r="H707" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I707" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B708" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C708" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D708" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E708" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="F708" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="G708" t="n">
+        <v>10.945</v>
+      </c>
+      <c r="H708" t="n">
+        <v>10.965</v>
+      </c>
+      <c r="I708" t="n">
+        <v>10.885</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I708"/>
+  <dimension ref="A1:I709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20989,6 +20989,35 @@
         <v>10.885</v>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B709" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C709" t="n">
+        <v>10.285</v>
+      </c>
+      <c r="D709" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E709" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F709" t="n">
+        <v>9.885</v>
+      </c>
+      <c r="G709" t="n">
+        <v>10.895</v>
+      </c>
+      <c r="H709" t="n">
+        <v>10.915</v>
+      </c>
+      <c r="I709" t="n">
+        <v>10.845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I709"/>
+  <dimension ref="A1:I710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21018,6 +21018,35 @@
         <v>10.845</v>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B710" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C710" t="n">
+        <v>10.285</v>
+      </c>
+      <c r="D710" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E710" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F710" t="n">
+        <v>9.885</v>
+      </c>
+      <c r="G710" t="n">
+        <v>10.895</v>
+      </c>
+      <c r="H710" t="n">
+        <v>10.915</v>
+      </c>
+      <c r="I710" t="n">
+        <v>10.845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I710"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21047,6 +21047,35 @@
         <v>10.845</v>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B711" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C711" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="D711" t="n">
+        <v>5.465</v>
+      </c>
+      <c r="E711" t="n">
+        <v>8.315</v>
+      </c>
+      <c r="F711" t="n">
+        <v>10.015</v>
+      </c>
+      <c r="G711" t="n">
+        <v>11.075</v>
+      </c>
+      <c r="H711" t="n">
+        <v>11.095</v>
+      </c>
+      <c r="I711" t="n">
+        <v>11.025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I711"/>
+  <dimension ref="A1:I712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21076,6 +21076,35 @@
         <v>11.025</v>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B712" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C712" t="n">
+        <v>10.355</v>
+      </c>
+      <c r="D712" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E712" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="F712" t="n">
+        <v>9.955</v>
+      </c>
+      <c r="G712" t="n">
+        <v>10.995</v>
+      </c>
+      <c r="H712" t="n">
+        <v>11.015</v>
+      </c>
+      <c r="I712" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I712"/>
+  <dimension ref="A1:I714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21105,6 +21105,64 @@
         <v>10.95</v>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B713" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C713" t="n">
+        <v>10.355</v>
+      </c>
+      <c r="D713" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E713" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="F713" t="n">
+        <v>9.955</v>
+      </c>
+      <c r="G713" t="n">
+        <v>10.995</v>
+      </c>
+      <c r="H713" t="n">
+        <v>11.015</v>
+      </c>
+      <c r="I713" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B714" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C714" t="n">
+        <v>10.355</v>
+      </c>
+      <c r="D714" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E714" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="F714" t="n">
+        <v>9.955</v>
+      </c>
+      <c r="G714" t="n">
+        <v>10.995</v>
+      </c>
+      <c r="H714" t="n">
+        <v>11.015</v>
+      </c>
+      <c r="I714" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I714"/>
+  <dimension ref="A1:I715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21163,6 +21163,35 @@
         <v>10.95</v>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B715" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C715" t="n">
+        <v>10.325</v>
+      </c>
+      <c r="D715" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E715" t="n">
+        <v>8.315</v>
+      </c>
+      <c r="F715" t="n">
+        <v>9.914999999999999</v>
+      </c>
+      <c r="G715" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="H715" t="n">
+        <v>10.955</v>
+      </c>
+      <c r="I715" t="n">
+        <v>10.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I715"/>
+  <dimension ref="A1:I716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21192,6 +21192,35 @@
         <v>10.89</v>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B716" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C716" t="n">
+        <v>10.285</v>
+      </c>
+      <c r="D716" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E716" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="F716" t="n">
+        <v>9.895</v>
+      </c>
+      <c r="G716" t="n">
+        <v>10.905</v>
+      </c>
+      <c r="H716" t="n">
+        <v>10.935</v>
+      </c>
+      <c r="I716" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I716"/>
+  <dimension ref="A1:I717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21221,6 +21221,35 @@
         <v>10.86</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B717" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C717" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="D717" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E717" t="n">
+        <v>8.445</v>
+      </c>
+      <c r="F717" t="n">
+        <v>10.055</v>
+      </c>
+      <c r="G717" t="n">
+        <v>11.025</v>
+      </c>
+      <c r="H717" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="I717" t="n">
+        <v>10.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I717"/>
+  <dimension ref="A1:I718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21250,6 +21250,35 @@
         <v>10.98</v>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B718" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="C718" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D718" t="n">
+        <v>5.495</v>
+      </c>
+      <c r="E718" t="n">
+        <v>8.505000000000001</v>
+      </c>
+      <c r="F718" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="G718" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="H718" t="n">
+        <v>11.085</v>
+      </c>
+      <c r="I718" t="n">
+        <v>11.015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I718"/>
+  <dimension ref="A1:I720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21279,6 +21279,64 @@
         <v>11.015</v>
       </c>
     </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C719" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D719" t="n">
+        <v>5.495</v>
+      </c>
+      <c r="E719" t="n">
+        <v>8.505000000000001</v>
+      </c>
+      <c r="F719" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="G719" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="H719" t="n">
+        <v>11.085</v>
+      </c>
+      <c r="I719" t="n">
+        <v>11.015</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B720" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C720" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="D720" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="E720" t="n">
+        <v>8.625</v>
+      </c>
+      <c r="F720" t="n">
+        <v>10.205</v>
+      </c>
+      <c r="G720" t="n">
+        <v>11.125</v>
+      </c>
+      <c r="H720" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="I720" t="n">
+        <v>11.095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I720"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21337,6 +21337,35 @@
         <v>11.095</v>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B721" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C721" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="D721" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="E721" t="n">
+        <v>8.654999999999999</v>
+      </c>
+      <c r="F721" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G721" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H721" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="I721" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:I722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21366,6 +21366,35 @@
         <v>11.2</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B722" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C722" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="D722" t="n">
+        <v>5.505</v>
+      </c>
+      <c r="E722" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="F722" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="G722" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="H722" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="I722" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I722"/>
+  <dimension ref="A1:I723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21395,6 +21395,35 @@
         <v>11.02</v>
       </c>
     </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B723" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C723" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D723" t="n">
+        <v>5.415</v>
+      </c>
+      <c r="E723" t="n">
+        <v>8.335000000000001</v>
+      </c>
+      <c r="F723" t="n">
+        <v>9.965</v>
+      </c>
+      <c r="G723" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="H723" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="I723" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I723"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21424,6 +21424,35 @@
         <v>10.95</v>
       </c>
     </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B724" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="C724" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D724" t="n">
+        <v>5.515</v>
+      </c>
+      <c r="E724" t="n">
+        <v>8.355</v>
+      </c>
+      <c r="F724" t="n">
+        <v>9.994999999999999</v>
+      </c>
+      <c r="G724" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="H724" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="I724" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I724"/>
+  <dimension ref="A1:I726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21453,6 +21453,64 @@
         <v>11</v>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B725" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C725" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D725" t="n">
+        <v>5.515</v>
+      </c>
+      <c r="E725" t="n">
+        <v>8.355</v>
+      </c>
+      <c r="F725" t="n">
+        <v>9.994999999999999</v>
+      </c>
+      <c r="G725" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="H725" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="I725" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B726" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C726" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D726" t="n">
+        <v>5.615</v>
+      </c>
+      <c r="E726" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F726" t="n">
+        <v>10</v>
+      </c>
+      <c r="G726" t="n">
+        <v>11.035</v>
+      </c>
+      <c r="H726" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="I726" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I726"/>
+  <dimension ref="A1:I727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21511,6 +21511,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B727" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C727" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="D727" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E727" t="n">
+        <v>8.414999999999999</v>
+      </c>
+      <c r="F727" t="n">
+        <v>10</v>
+      </c>
+      <c r="G727" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H727" t="n">
+        <v>11.115</v>
+      </c>
+      <c r="I727" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I727"/>
+  <dimension ref="A1:I728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21540,6 +21540,35 @@
         <v>11.05</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B728" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C728" t="n">
+        <v>10.395</v>
+      </c>
+      <c r="D728" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E728" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F728" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G728" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H728" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="I728" t="n">
+        <v>11.055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I728"/>
+  <dimension ref="A1:I729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21569,6 +21569,35 @@
         <v>11.055</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B729" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C729" t="n">
+        <v>10.315</v>
+      </c>
+      <c r="D729" t="n">
+        <v>5.675</v>
+      </c>
+      <c r="E729" t="n">
+        <v>8.275</v>
+      </c>
+      <c r="F729" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="G729" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="H729" t="n">
+        <v>11.045</v>
+      </c>
+      <c r="I729" t="n">
+        <v>10.985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I729"/>
+  <dimension ref="A1:I730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21598,6 +21598,35 @@
         <v>10.985</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B730" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C730" t="n">
+        <v>10.205</v>
+      </c>
+      <c r="D730" t="n">
+        <v>5.645</v>
+      </c>
+      <c r="E730" t="n">
+        <v>8.205</v>
+      </c>
+      <c r="F730" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="G730" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="H730" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="I730" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I730"/>
+  <dimension ref="A1:I732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21627,6 +21627,64 @@
         <v>10.86</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C731" t="n">
+        <v>10.205</v>
+      </c>
+      <c r="D731" t="n">
+        <v>5.645</v>
+      </c>
+      <c r="E731" t="n">
+        <v>8.205</v>
+      </c>
+      <c r="F731" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="G731" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="H731" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="I731" t="n">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B732" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C732" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="D732" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E732" t="n">
+        <v>8.215</v>
+      </c>
+      <c r="F732" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G732" t="n">
+        <v>10.855</v>
+      </c>
+      <c r="H732" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="I732" t="n">
+        <v>10.805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I732"/>
+  <dimension ref="A1:I733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21685,6 +21685,35 @@
         <v>10.805</v>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B733" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C733" t="n">
+        <v>10.165</v>
+      </c>
+      <c r="D733" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E733" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F733" t="n">
+        <v>9.734999999999999</v>
+      </c>
+      <c r="G733" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H733" t="n">
+        <v>10.875</v>
+      </c>
+      <c r="I733" t="n">
+        <v>10.795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I733"/>
+  <dimension ref="A1:I734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21714,6 +21714,35 @@
         <v>10.795</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B734" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C734" t="n">
+        <v>10.215</v>
+      </c>
+      <c r="D734" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E734" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F734" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="G734" t="n">
+        <v>10.955</v>
+      </c>
+      <c r="H734" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="I734" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I734"/>
+  <dimension ref="A1:I735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21743,6 +21743,35 @@
         <v>10.91</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B735" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C735" t="n">
+        <v>10.225</v>
+      </c>
+      <c r="D735" t="n">
+        <v>5.725</v>
+      </c>
+      <c r="E735" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="F735" t="n">
+        <v>9.775</v>
+      </c>
+      <c r="G735" t="n">
+        <v>10.945</v>
+      </c>
+      <c r="H735" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="I735" t="n">
+        <v>10.905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I735"/>
+  <dimension ref="A1:I736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21772,6 +21772,35 @@
         <v>10.905</v>
       </c>
     </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B736" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C736" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="D736" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E736" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="F736" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G736" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="H736" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="I736" t="n">
+        <v>10.875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I736"/>
+  <dimension ref="A1:I738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21801,6 +21801,64 @@
         <v>10.875</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B737" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C737" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="D737" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E737" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="F737" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G737" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="H737" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="I737" t="n">
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B738" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="C738" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="D738" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="E738" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F738" t="n">
+        <v>9.664999999999999</v>
+      </c>
+      <c r="G738" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="H738" t="n">
+        <v>10.925</v>
+      </c>
+      <c r="I738" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I738"/>
+  <dimension ref="A1:I739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21859,6 +21859,35 @@
         <v>10.85</v>
       </c>
     </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B739" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C739" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D739" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E739" t="n">
+        <v>8.265000000000001</v>
+      </c>
+      <c r="F739" t="n">
+        <v>9.835000000000001</v>
+      </c>
+      <c r="G739" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="H739" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="I739" t="n">
+        <v>10.995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I739"/>
+  <dimension ref="A1:I741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21888,6 +21888,64 @@
         <v>10.995</v>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B740" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C740" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="D740" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E740" t="n">
+        <v>8.285</v>
+      </c>
+      <c r="F740" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G740" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="H740" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="I740" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B741" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C741" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D741" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="E741" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="F741" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="G741" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="H741" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="I741" t="n">
+        <v>10.985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I741"/>
+  <dimension ref="A1:I742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21946,6 +21946,35 @@
         <v>10.985</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B742" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C742" t="n">
+        <v>10.295</v>
+      </c>
+      <c r="D742" t="n">
+        <v>5.585</v>
+      </c>
+      <c r="E742" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F742" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="G742" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="H742" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="I742" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I742"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21975,6 +21975,64 @@
         <v>10.96</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B743" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C743" t="n">
+        <v>10.295</v>
+      </c>
+      <c r="D743" t="n">
+        <v>5.585</v>
+      </c>
+      <c r="E743" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F743" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="G743" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="H743" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="I743" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B744" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C744" t="n">
+        <v>10.365</v>
+      </c>
+      <c r="D744" t="n">
+        <v>5.565</v>
+      </c>
+      <c r="E744" t="n">
+        <v>8.315</v>
+      </c>
+      <c r="F744" t="n">
+        <v>9.895</v>
+      </c>
+      <c r="G744" t="n">
+        <v>11.025</v>
+      </c>
+      <c r="H744" t="n">
+        <v>11.055</v>
+      </c>
+      <c r="I744" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I744"/>
+  <dimension ref="A1:I745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22033,6 +22033,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B745" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C745" t="n">
+        <v>10.435</v>
+      </c>
+      <c r="D745" t="n">
+        <v>5.565</v>
+      </c>
+      <c r="E745" t="n">
+        <v>8.414999999999999</v>
+      </c>
+      <c r="F745" t="n">
+        <v>9.965</v>
+      </c>
+      <c r="G745" t="n">
+        <v>11.095</v>
+      </c>
+      <c r="H745" t="n">
+        <v>11.125</v>
+      </c>
+      <c r="I745" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I745"/>
+  <dimension ref="A1:I747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22062,6 +22062,64 @@
         <v>11.07</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B746" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C746" t="n">
+        <v>10.415</v>
+      </c>
+      <c r="D746" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E746" t="n">
+        <v>8.414999999999999</v>
+      </c>
+      <c r="F746" t="n">
+        <v>9.945</v>
+      </c>
+      <c r="G746" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H746" t="n">
+        <v>11.125</v>
+      </c>
+      <c r="I746" t="n">
+        <v>11.075</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B747" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C747" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="D747" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E747" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F747" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G747" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="H747" t="n">
+        <v>11.175</v>
+      </c>
+      <c r="I747" t="n">
+        <v>11.125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I747"/>
+  <dimension ref="A1:I748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22120,6 +22120,35 @@
         <v>11.125</v>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B748" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C748" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="D748" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E748" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F748" t="n">
+        <v>10.205</v>
+      </c>
+      <c r="G748" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="H748" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="I748" t="n">
+        <v>11.355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I748"/>
+  <dimension ref="A1:I749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22149,6 +22149,35 @@
         <v>11.355</v>
       </c>
     </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B749" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C749" t="n">
+        <v>10.905</v>
+      </c>
+      <c r="D749" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E749" t="n">
+        <v>8.955</v>
+      </c>
+      <c r="F749" t="n">
+        <v>10.455</v>
+      </c>
+      <c r="G749" t="n">
+        <v>11.545</v>
+      </c>
+      <c r="H749" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="I749" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I749"/>
+  <dimension ref="A1:I750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22178,6 +22178,35 @@
         <v>11.53</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B750" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C750" t="n">
+        <v>10.825</v>
+      </c>
+      <c r="D750" t="n">
+        <v>5.805</v>
+      </c>
+      <c r="E750" t="n">
+        <v>8.895</v>
+      </c>
+      <c r="F750" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="G750" t="n">
+        <v>11.435</v>
+      </c>
+      <c r="H750" t="n">
+        <v>11.465</v>
+      </c>
+      <c r="I750" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I750"/>
+  <dimension ref="A1:I753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22207,6 +22207,93 @@
         <v>11.42</v>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B751" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C751" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D751" t="n">
+        <v>5.675</v>
+      </c>
+      <c r="E751" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="F751" t="n">
+        <v>10.255</v>
+      </c>
+      <c r="G751" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="H751" t="n">
+        <v>11.345</v>
+      </c>
+      <c r="I751" t="n">
+        <v>11.295</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B752" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C752" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D752" t="n">
+        <v>5.675</v>
+      </c>
+      <c r="E752" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="F752" t="n">
+        <v>10.255</v>
+      </c>
+      <c r="G752" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="H752" t="n">
+        <v>11.345</v>
+      </c>
+      <c r="I752" t="n">
+        <v>11.295</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B753" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C753" t="n">
+        <v>10.695</v>
+      </c>
+      <c r="D753" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="E753" t="n">
+        <v>8.695</v>
+      </c>
+      <c r="F753" t="n">
+        <v>10.245</v>
+      </c>
+      <c r="G753" t="n">
+        <v>11.325</v>
+      </c>
+      <c r="H753" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="I753" t="n">
+        <v>11.295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -22276,7 +22276,7 @@
         <v>10.695</v>
       </c>
       <c r="D753" t="n">
-        <v>5.665</v>
+        <v>5.65</v>
       </c>
       <c r="E753" t="n">
         <v>8.695</v>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I753"/>
+  <dimension ref="A1:I754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22294,6 +22294,35 @@
         <v>11.295</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B754" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C754" t="n">
+        <v>10.685</v>
+      </c>
+      <c r="D754" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E754" t="n">
+        <v>8.675000000000001</v>
+      </c>
+      <c r="F754" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="G754" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H754" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="I754" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I754"/>
+  <dimension ref="A1:I755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22323,6 +22323,35 @@
         <v>11.31</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B755" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="C755" t="n">
+        <v>10.615</v>
+      </c>
+      <c r="D755" t="n">
+        <v>5.675</v>
+      </c>
+      <c r="E755" t="n">
+        <v>8.574999999999999</v>
+      </c>
+      <c r="F755" t="n">
+        <v>10.165</v>
+      </c>
+      <c r="G755" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="H755" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="I755" t="n">
+        <v>11.275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I755"/>
+  <dimension ref="A1:I756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22352,6 +22352,35 @@
         <v>11.275</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B756" t="n">
+        <v>6</v>
+      </c>
+      <c r="C756" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="D756" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E756" t="n">
+        <v>8.585000000000001</v>
+      </c>
+      <c r="F756" t="n">
+        <v>10.135</v>
+      </c>
+      <c r="G756" t="n">
+        <v>11.245</v>
+      </c>
+      <c r="H756" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="I756" t="n">
+        <v>11.225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I756"/>
+  <dimension ref="A1:I757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22381,6 +22381,35 @@
         <v>11.225</v>
       </c>
     </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B757" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C757" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="D757" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E757" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="F757" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="G757" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H757" t="n">
+        <v>11.275</v>
+      </c>
+      <c r="I757" t="n">
+        <v>11.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I757"/>
+  <dimension ref="A1:I758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22410,6 +22410,35 @@
         <v>11.23</v>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B758" t="n">
+        <v>6</v>
+      </c>
+      <c r="C758" t="n">
+        <v>10.715</v>
+      </c>
+      <c r="D758" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E758" t="n">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="F758" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="G758" t="n">
+        <v>11.345</v>
+      </c>
+      <c r="H758" t="n">
+        <v>11.365</v>
+      </c>
+      <c r="I758" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I758"/>
+  <dimension ref="A1:I760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22439,6 +22439,64 @@
         <v>11.32</v>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B759" t="n">
+        <v>6</v>
+      </c>
+      <c r="C759" t="n">
+        <v>10.715</v>
+      </c>
+      <c r="D759" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E759" t="n">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="F759" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="G759" t="n">
+        <v>11.345</v>
+      </c>
+      <c r="H759" t="n">
+        <v>11.365</v>
+      </c>
+      <c r="I759" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B760" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C760" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="D760" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="E760" t="n">
+        <v>8.824999999999999</v>
+      </c>
+      <c r="F760" t="n">
+        <v>10.325</v>
+      </c>
+      <c r="G760" t="n">
+        <v>11.435</v>
+      </c>
+      <c r="H760" t="n">
+        <v>11.445</v>
+      </c>
+      <c r="I760" t="n">
+        <v>11.395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I760"/>
+  <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22497,6 +22497,35 @@
         <v>11.395</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B761" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C761" t="n">
+        <v>10.885</v>
+      </c>
+      <c r="D761" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="E761" t="n">
+        <v>8.895</v>
+      </c>
+      <c r="F761" t="n">
+        <v>10.435</v>
+      </c>
+      <c r="G761" t="n">
+        <v>11.525</v>
+      </c>
+      <c r="H761" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="I761" t="n">
+        <v>11.485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I761"/>
+  <dimension ref="A1:I762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22526,6 +22526,35 @@
         <v>11.485</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B762" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C762" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="D762" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E762" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="F762" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="G762" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="H762" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="I762" t="n">
+        <v>11.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22555,6 +22555,35 @@
         <v>11.47</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B763" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C763" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="D763" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E763" t="n">
+        <v>8.895</v>
+      </c>
+      <c r="F763" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="G763" t="n">
+        <v>11.635</v>
+      </c>
+      <c r="H763" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="I763" t="n">
+        <v>11.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I763"/>
+  <dimension ref="A1:I764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22584,6 +22584,35 @@
         <v>11.575</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B764" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C764" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D764" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E764" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F764" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="G764" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="H764" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="I764" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I764"/>
+  <dimension ref="A1:I767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22613,6 +22613,93 @@
         <v>11.46</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>44744</v>
+      </c>
+      <c r="B765" t="n">
+        <v>6</v>
+      </c>
+      <c r="C765" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D765" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E765" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F765" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="G765" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="H765" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="I765" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B766" t="n">
+        <v>6</v>
+      </c>
+      <c r="C766" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D766" t="n">
+        <v>6.355</v>
+      </c>
+      <c r="E766" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F766" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="G766" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="H766" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="I766" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B767" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C767" t="n">
+        <v>10.935</v>
+      </c>
+      <c r="D767" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E767" t="n">
+        <v>8.805</v>
+      </c>
+      <c r="F767" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="G767" t="n">
+        <v>11.575</v>
+      </c>
+      <c r="H767" t="n">
+        <v>11.545</v>
+      </c>
+      <c r="I767" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I767"/>
+  <dimension ref="A1:I768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22700,6 +22700,35 @@
         <v>11.51</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B768" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C768" t="n">
+        <v>11.055</v>
+      </c>
+      <c r="D768" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="E768" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F768" t="n">
+        <v>10.605</v>
+      </c>
+      <c r="G768" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="H768" t="n">
+        <v>11.635</v>
+      </c>
+      <c r="I768" t="n">
+        <v>11.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I768"/>
+  <dimension ref="A1:I769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22729,6 +22729,35 @@
         <v>11.59</v>
       </c>
     </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B769" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C769" t="n">
+        <v>11.155</v>
+      </c>
+      <c r="D769" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E769" t="n">
+        <v>9.115</v>
+      </c>
+      <c r="F769" t="n">
+        <v>10.715</v>
+      </c>
+      <c r="G769" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H769" t="n">
+        <v>11.705</v>
+      </c>
+      <c r="I769" t="n">
+        <v>11.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I769"/>
+  <dimension ref="A1:I770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22758,6 +22758,35 @@
         <v>11.66</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B770" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C770" t="n">
+        <v>11.045</v>
+      </c>
+      <c r="D770" t="n">
+        <v>6.575</v>
+      </c>
+      <c r="E770" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="F770" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="G770" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="H770" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="I770" t="n">
+        <v>11.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I770"/>
+  <dimension ref="A1:I771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22787,6 +22787,35 @@
         <v>11.575</v>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B771" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C771" t="n">
+        <v>11.085</v>
+      </c>
+      <c r="D771" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E771" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F771" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G771" t="n">
+        <v>11.645</v>
+      </c>
+      <c r="H771" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="I771" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I771"/>
+  <dimension ref="A1:I773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22816,6 +22816,64 @@
         <v>11.61</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B772" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C772" t="n">
+        <v>11.085</v>
+      </c>
+      <c r="D772" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E772" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F772" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G772" t="n">
+        <v>11.645</v>
+      </c>
+      <c r="H772" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="I772" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B773" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C773" t="n">
+        <v>11.205</v>
+      </c>
+      <c r="D773" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E773" t="n">
+        <v>9.135</v>
+      </c>
+      <c r="F773" t="n">
+        <v>10.745</v>
+      </c>
+      <c r="G773" t="n">
+        <v>11.755</v>
+      </c>
+      <c r="H773" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="I773" t="n">
+        <v>11.685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I773"/>
+  <dimension ref="A1:I774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22874,6 +22874,35 @@
         <v>11.685</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B774" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="C774" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="D774" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E774" t="n">
+        <v>9.234999999999999</v>
+      </c>
+      <c r="F774" t="n">
+        <v>10.835</v>
+      </c>
+      <c r="G774" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="H774" t="n">
+        <v>11.845</v>
+      </c>
+      <c r="I774" t="n">
+        <v>11.795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I774"/>
+  <dimension ref="A1:I775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22903,6 +22903,35 @@
         <v>11.795</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B775" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C775" t="n">
+        <v>11.275</v>
+      </c>
+      <c r="D775" t="n">
+        <v>6.685</v>
+      </c>
+      <c r="E775" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="F775" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="G775" t="n">
+        <v>11.855</v>
+      </c>
+      <c r="H775" t="n">
+        <v>11.855</v>
+      </c>
+      <c r="I775" t="n">
+        <v>11.815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I775"/>
+  <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22932,6 +22932,35 @@
         <v>11.815</v>
       </c>
     </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B776" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C776" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="D776" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E776" t="n">
+        <v>9.425000000000001</v>
+      </c>
+      <c r="F776" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="G776" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="H776" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="I776" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I776"/>
+  <dimension ref="A1:I777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22961,6 +22961,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B777" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C777" t="n">
+        <v>11.455</v>
+      </c>
+      <c r="D777" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E777" t="n">
+        <v>9.455</v>
+      </c>
+      <c r="F777" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="G777" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H777" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="I777" t="n">
+        <v>11.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I777"/>
+  <dimension ref="A1:I779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22990,6 +22990,64 @@
         <v>11.89</v>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B778" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C778" t="n">
+        <v>11.455</v>
+      </c>
+      <c r="D778" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E778" t="n">
+        <v>9.455</v>
+      </c>
+      <c r="F778" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="G778" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H778" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="I778" t="n">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B779" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C779" t="n">
+        <v>11.525</v>
+      </c>
+      <c r="D779" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E779" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F779" t="n">
+        <v>11.085</v>
+      </c>
+      <c r="G779" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H779" t="n">
+        <v>11.945</v>
+      </c>
+      <c r="I779" t="n">
+        <v>11.905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I779"/>
+  <dimension ref="A1:I781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23048,6 +23048,64 @@
         <v>11.905</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B780" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C780" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D780" t="n">
+        <v>6.825</v>
+      </c>
+      <c r="E780" t="n">
+        <v>9.525</v>
+      </c>
+      <c r="F780" t="n">
+        <v>11.115</v>
+      </c>
+      <c r="G780" t="n">
+        <v>11.995</v>
+      </c>
+      <c r="H780" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="I780" t="n">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B781" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C781" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D781" t="n">
+        <v>6.775</v>
+      </c>
+      <c r="E781" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F781" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="G781" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="H781" t="n">
+        <v>11.865</v>
+      </c>
+      <c r="I781" t="n">
+        <v>11.825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I781"/>
+  <dimension ref="A1:I782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23106,6 +23106,35 @@
         <v>11.825</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B782" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C782" t="n">
+        <v>10.965</v>
+      </c>
+      <c r="D782" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E782" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F782" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="G782" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="H782" t="n">
+        <v>11.385</v>
+      </c>
+      <c r="I782" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I782"/>
+  <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23135,6 +23135,35 @@
         <v>11.35</v>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B783" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="C783" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D783" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="E783" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F783" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="G783" t="n">
+        <v>11.405</v>
+      </c>
+      <c r="H783" t="n">
+        <v>11.385</v>
+      </c>
+      <c r="I783" t="n">
+        <v>11.345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I783"/>
+  <dimension ref="A1:I784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23164,6 +23164,35 @@
         <v>11.345</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B784" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C784" t="n">
+        <v>11.125</v>
+      </c>
+      <c r="D784" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E784" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="F784" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G784" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="H784" t="n">
+        <v>11.575</v>
+      </c>
+      <c r="I784" t="n">
+        <v>11.535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I784"/>
+  <dimension ref="A1:I785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23193,6 +23193,35 @@
         <v>11.535</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B785" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C785" t="n">
+        <v>11.095</v>
+      </c>
+      <c r="D785" t="n">
+        <v>6.855</v>
+      </c>
+      <c r="E785" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="F785" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="G785" t="n">
+        <v>11.585</v>
+      </c>
+      <c r="H785" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="I785" t="n">
+        <v>11.525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I785"/>
+  <dimension ref="A1:I786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23222,6 +23222,35 @@
         <v>11.525</v>
       </c>
     </row>
+    <row r="786">
+      <c r="A786" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B786" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="C786" t="n">
+        <v>10.865</v>
+      </c>
+      <c r="D786" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E786" t="n">
+        <v>8.945</v>
+      </c>
+      <c r="F786" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="G786" t="n">
+        <v>11.405</v>
+      </c>
+      <c r="H786" t="n">
+        <v>11.385</v>
+      </c>
+      <c r="I786" t="n">
+        <v>11.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I786"/>
+  <dimension ref="A1:I787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23251,6 +23251,35 @@
         <v>11.34</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B787" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="C787" t="n">
+        <v>10.795</v>
+      </c>
+      <c r="D787" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E787" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F787" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="G787" t="n">
+        <v>11.325</v>
+      </c>
+      <c r="H787" t="n">
+        <v>11.315</v>
+      </c>
+      <c r="I787" t="n">
+        <v>11.255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I787"/>
+  <dimension ref="A1:I790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23280,6 +23280,93 @@
         <v>11.255</v>
       </c>
     </row>
+    <row r="788">
+      <c r="A788" s="2" t="n">
+        <v>44772</v>
+      </c>
+      <c r="B788" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C788" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D788" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E788" t="n">
+        <v>8.935</v>
+      </c>
+      <c r="F788" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="G788" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H788" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="I788" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B789" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C789" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D789" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E789" t="n">
+        <v>8.935</v>
+      </c>
+      <c r="F789" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="G789" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H789" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="I789" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B790" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C790" t="n">
+        <v>10.885</v>
+      </c>
+      <c r="D790" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E790" t="n">
+        <v>9.055</v>
+      </c>
+      <c r="F790" t="n">
+        <v>10.445</v>
+      </c>
+      <c r="G790" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H790" t="n">
+        <v>11.385</v>
+      </c>
+      <c r="I790" t="n">
+        <v>11.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I790"/>
+  <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23367,6 +23367,35 @@
         <v>11.33</v>
       </c>
     </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B791" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C791" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D791" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="E791" t="n">
+        <v>8.965</v>
+      </c>
+      <c r="F791" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="G791" t="n">
+        <v>11.305</v>
+      </c>
+      <c r="H791" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="I791" t="n">
+        <v>11.245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I791"/>
+  <dimension ref="A1:I792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23396,6 +23396,35 @@
         <v>11.245</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B792" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C792" t="n">
+        <v>10.765</v>
+      </c>
+      <c r="D792" t="n">
+        <v>7.075</v>
+      </c>
+      <c r="E792" t="n">
+        <v>8.994999999999999</v>
+      </c>
+      <c r="F792" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="G792" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="H792" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I792" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I792"/>
+  <dimension ref="A1:I793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23425,6 +23425,35 @@
         <v>11.18</v>
       </c>
     </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B793" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C793" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="D793" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="E793" t="n">
+        <v>8.815</v>
+      </c>
+      <c r="F793" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="G793" t="n">
+        <v>11.115</v>
+      </c>
+      <c r="H793" t="n">
+        <v>11.115</v>
+      </c>
+      <c r="I793" t="n">
+        <v>11.055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I793"/>
+  <dimension ref="A1:I794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23454,6 +23454,35 @@
         <v>11.055</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B794" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C794" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D794" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E794" t="n">
+        <v>8.904999999999999</v>
+      </c>
+      <c r="F794" t="n">
+        <v>10.285</v>
+      </c>
+      <c r="G794" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="H794" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="I794" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I794"/>
+  <dimension ref="A1:I796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23483,6 +23483,64 @@
         <v>11.09</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B795" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C795" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D795" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E795" t="n">
+        <v>8.904999999999999</v>
+      </c>
+      <c r="F795" t="n">
+        <v>10.285</v>
+      </c>
+      <c r="G795" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="H795" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="I795" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B796" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C796" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D796" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E796" t="n">
+        <v>8.904999999999999</v>
+      </c>
+      <c r="F796" t="n">
+        <v>10.285</v>
+      </c>
+      <c r="G796" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="H796" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="I796" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I796"/>
+  <dimension ref="A1:I797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23541,6 +23541,35 @@
         <v>11.09</v>
       </c>
     </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B797" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C797" t="n">
+        <v>10.265</v>
+      </c>
+      <c r="D797" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E797" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F797" t="n">
+        <v>9.815</v>
+      </c>
+      <c r="G797" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="H797" t="n">
+        <v>10.755</v>
+      </c>
+      <c r="I797" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I797"/>
+  <dimension ref="A1:I798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23570,6 +23570,35 @@
         <v>10.7</v>
       </c>
     </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B798" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C798" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D798" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E798" t="n">
+        <v>8.615</v>
+      </c>
+      <c r="F798" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="G798" t="n">
+        <v>10.985</v>
+      </c>
+      <c r="H798" t="n">
+        <v>10.955</v>
+      </c>
+      <c r="I798" t="n">
+        <v>10.905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I798"/>
+  <dimension ref="A1:I800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23599,6 +23599,64 @@
         <v>10.905</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B799" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C799" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D799" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E799" t="n">
+        <v>8.615</v>
+      </c>
+      <c r="F799" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="G799" t="n">
+        <v>10.985</v>
+      </c>
+      <c r="H799" t="n">
+        <v>10.955</v>
+      </c>
+      <c r="I799" t="n">
+        <v>10.905</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B800" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C800" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D800" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E800" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="F800" t="n">
+        <v>10</v>
+      </c>
+      <c r="G800" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="H800" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="I800" t="n">
+        <v>10.985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I800"/>
+  <dimension ref="A1:I801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23657,6 +23657,35 @@
         <v>10.985</v>
       </c>
     </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B801" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C801" t="n">
+        <v>10.535</v>
+      </c>
+      <c r="D801" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E801" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="F801" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="G801" t="n">
+        <v>11.165</v>
+      </c>
+      <c r="H801" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="I801" t="n">
+        <v>11.085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I801"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23686,6 +23686,35 @@
         <v>11.085</v>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B802" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C802" t="n">
+        <v>10.625</v>
+      </c>
+      <c r="D802" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="E802" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="F802" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="G802" t="n">
+        <v>11.225</v>
+      </c>
+      <c r="H802" t="n">
+        <v>11.205</v>
+      </c>
+      <c r="I802" t="n">
+        <v>11.135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I802"/>
+  <dimension ref="A1:I803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23715,6 +23715,35 @@
         <v>11.135</v>
       </c>
     </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B803" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C803" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D803" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E803" t="n">
+        <v>8.795</v>
+      </c>
+      <c r="F803" t="n">
+        <v>10.185</v>
+      </c>
+      <c r="G803" t="n">
+        <v>11.245</v>
+      </c>
+      <c r="H803" t="n">
+        <v>11.225</v>
+      </c>
+      <c r="I803" t="n">
+        <v>11.165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I803"/>
+  <dimension ref="A1:I804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23744,6 +23744,35 @@
         <v>11.165</v>
       </c>
     </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B804" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C804" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="D804" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E804" t="n">
+        <v>8.925000000000001</v>
+      </c>
+      <c r="F804" t="n">
+        <v>10.325</v>
+      </c>
+      <c r="G804" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="H804" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="I804" t="n">
+        <v>11.295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I804"/>
+  <dimension ref="A1:I806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23773,6 +23773,64 @@
         <v>11.295</v>
       </c>
     </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B805" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C805" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="D805" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E805" t="n">
+        <v>8.925000000000001</v>
+      </c>
+      <c r="F805" t="n">
+        <v>10.325</v>
+      </c>
+      <c r="G805" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="H805" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="I805" t="n">
+        <v>11.295</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B806" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C806" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="D806" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E806" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F806" t="n">
+        <v>10.315</v>
+      </c>
+      <c r="G806" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H806" t="n">
+        <v>11.335</v>
+      </c>
+      <c r="I806" t="n">
+        <v>11.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I806"/>
+  <dimension ref="A1:I807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23831,6 +23831,35 @@
         <v>11.27</v>
       </c>
     </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B807" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C807" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D807" t="n">
+        <v>6.925</v>
+      </c>
+      <c r="E807" t="n">
+        <v>8.945</v>
+      </c>
+      <c r="F807" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="G807" t="n">
+        <v>11.365</v>
+      </c>
+      <c r="H807" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="I807" t="n">
+        <v>11.285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I807"/>
+  <dimension ref="A1:I808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23860,6 +23860,35 @@
         <v>11.285</v>
       </c>
     </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B808" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="C808" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D808" t="n">
+        <v>6.925</v>
+      </c>
+      <c r="E808" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F808" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G808" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H808" t="n">
+        <v>11.285</v>
+      </c>
+      <c r="I808" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I808"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23889,6 +23889,35 @@
         <v>11.22</v>
       </c>
     </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B809" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C809" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D809" t="n">
+        <v>6.915</v>
+      </c>
+      <c r="E809" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F809" t="n">
+        <v>10.205</v>
+      </c>
+      <c r="G809" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="H809" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="I809" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I809"/>
+  <dimension ref="A1:I810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23918,6 +23918,35 @@
         <v>11.09</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B810" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C810" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="D810" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E810" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="F810" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="G810" t="n">
+        <v>11.155</v>
+      </c>
+      <c r="H810" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="I810" t="n">
+        <v>11.075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I810"/>
+  <dimension ref="A1:I812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23947,6 +23947,64 @@
         <v>11.075</v>
       </c>
     </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B811" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C811" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="D811" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E811" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="F811" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="G811" t="n">
+        <v>11.155</v>
+      </c>
+      <c r="H811" t="n">
+        <v>11.145</v>
+      </c>
+      <c r="I811" t="n">
+        <v>11.075</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B812" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C812" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D812" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E812" t="n">
+        <v>8.795</v>
+      </c>
+      <c r="F812" t="n">
+        <v>10.245</v>
+      </c>
+      <c r="G812" t="n">
+        <v>11.205</v>
+      </c>
+      <c r="H812" t="n">
+        <v>11.195</v>
+      </c>
+      <c r="I812" t="n">
+        <v>11.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I812"/>
+  <dimension ref="A1:I813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24005,6 +24005,35 @@
         <v>11.12</v>
       </c>
     </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B813" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C813" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="D813" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="E813" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F813" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="G813" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="H813" t="n">
+        <v>11.285</v>
+      </c>
+      <c r="I813" t="n">
+        <v>11.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I813"/>
+  <dimension ref="A1:I814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24034,6 +24034,35 @@
         <v>11.21</v>
       </c>
     </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B814" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C814" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D814" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E814" t="n">
+        <v>8.975</v>
+      </c>
+      <c r="F814" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="G814" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H814" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I814" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I814"/>
+  <dimension ref="A1:I815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24063,6 +24063,35 @@
         <v>11.32</v>
       </c>
     </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B815" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C815" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D815" t="n">
+        <v>6.935</v>
+      </c>
+      <c r="E815" t="n">
+        <v>9.055</v>
+      </c>
+      <c r="F815" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="G815" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H815" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I815" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I815"/>
+  <dimension ref="A1:I816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24092,6 +24092,35 @@
         <v>11.39</v>
       </c>
     </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B816" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C816" t="n">
+        <v>10.775</v>
+      </c>
+      <c r="D816" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="E816" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F816" t="n">
+        <v>10.325</v>
+      </c>
+      <c r="G816" t="n">
+        <v>11.245</v>
+      </c>
+      <c r="H816" t="n">
+        <v>11.235</v>
+      </c>
+      <c r="I816" t="n">
+        <v>11.155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I816"/>
+  <dimension ref="A1:I818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24121,6 +24121,64 @@
         <v>11.155</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B817" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C817" t="n">
+        <v>10.775</v>
+      </c>
+      <c r="D817" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="E817" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F817" t="n">
+        <v>10.325</v>
+      </c>
+      <c r="G817" t="n">
+        <v>11.245</v>
+      </c>
+      <c r="H817" t="n">
+        <v>11.235</v>
+      </c>
+      <c r="I817" t="n">
+        <v>11.155</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B818" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C818" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D818" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E818" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="F818" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="G818" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="H818" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="I818" t="n">
+        <v>11.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I818"/>
+  <dimension ref="A1:I819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24179,6 +24179,35 @@
         <v>11.17</v>
       </c>
     </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B819" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="C819" t="n">
+        <v>10.975</v>
+      </c>
+      <c r="D819" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E819" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F819" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="G819" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H819" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="I819" t="n">
+        <v>11.375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I819"/>
+  <dimension ref="A1:I821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24208,6 +24208,64 @@
         <v>11.375</v>
       </c>
     </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B820" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C820" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="D820" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="E820" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F820" t="n">
+        <v>10.375</v>
+      </c>
+      <c r="G820" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H820" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I820" t="n">
+        <v>11.235</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B821" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C821" t="n">
+        <v>10.845</v>
+      </c>
+      <c r="D821" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="E821" t="n">
+        <v>8.895</v>
+      </c>
+      <c r="F821" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="G821" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="H821" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I821" t="n">
+        <v>11.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I821"/>
+  <dimension ref="A1:I822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24266,6 +24266,35 @@
         <v>11.33</v>
       </c>
     </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B822" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="C822" t="n">
+        <v>10.765</v>
+      </c>
+      <c r="D822" t="n">
+        <v>6.985</v>
+      </c>
+      <c r="E822" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F822" t="n">
+        <v>10.305</v>
+      </c>
+      <c r="G822" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H822" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="I822" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I822"/>
+  <dimension ref="A1:I825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24295,6 +24295,93 @@
         <v>11.25</v>
       </c>
     </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B823" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C823" t="n">
+        <v>10.765</v>
+      </c>
+      <c r="D823" t="n">
+        <v>6.985</v>
+      </c>
+      <c r="E823" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F823" t="n">
+        <v>10.305</v>
+      </c>
+      <c r="G823" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H823" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="I823" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B824" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C824" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="D824" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="E824" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="F824" t="n">
+        <v>10.185</v>
+      </c>
+      <c r="G824" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H824" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I824" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B825" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C825" t="n">
+        <v>10.665</v>
+      </c>
+      <c r="D825" t="n">
+        <v>6.955</v>
+      </c>
+      <c r="E825" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F825" t="n">
+        <v>10.195</v>
+      </c>
+      <c r="G825" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H825" t="n">
+        <v>11.235</v>
+      </c>
+      <c r="I825" t="n">
+        <v>11.155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_South Africa.xlsx
+++ b/Bonds_South Africa.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I825"/>
+  <dimension ref="A1:I826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24382,6 +24382,35 @@
         <v>11.155</v>
       </c>
     </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B826" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C826" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="D826" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E826" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="F826" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="G826" t="n">
+        <v>11.315</v>
+      </c>
+      <c r="H826" t="n">
+        <v>11.305</v>
+      </c>
+      <c r="I826" t="n">
+        <v>11.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
